--- a/meetup/events/Family.xlsx
+++ b/meetup/events/Family.xlsx
@@ -537,325 +537,289 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
         <v>32</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E11" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="H11" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="H12" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
-    <hyperlink ref="I3" r:id="rId2"/>
-    <hyperlink ref="I4" r:id="rId3"/>
-    <hyperlink ref="I5" r:id="rId4"/>
-    <hyperlink ref="I6" r:id="rId5"/>
-    <hyperlink ref="I7" r:id="rId6"/>
-    <hyperlink ref="I8" r:id="rId7"/>
-    <hyperlink ref="I9" r:id="rId8"/>
-    <hyperlink ref="I10" r:id="rId9"/>
-    <hyperlink ref="I11" r:id="rId10"/>
-    <hyperlink ref="I12" r:id="rId11"/>
-    <hyperlink ref="I13" r:id="rId12"/>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H3" r:id="rId2"/>
+    <hyperlink ref="H4" r:id="rId3"/>
+    <hyperlink ref="H5" r:id="rId4"/>
+    <hyperlink ref="H6" r:id="rId5"/>
+    <hyperlink ref="H7" r:id="rId6"/>
+    <hyperlink ref="H8" r:id="rId7"/>
+    <hyperlink ref="H9" r:id="rId8"/>
+    <hyperlink ref="H10" r:id="rId9"/>
+    <hyperlink ref="H11" r:id="rId10"/>
+    <hyperlink ref="H12" r:id="rId11"/>
+    <hyperlink ref="H13" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
